--- a/output/naive_runtime.xlsx
+++ b/output/naive_runtime.xlsx
@@ -448,8 +448,10 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0008490085601806641</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0003800392150878906   1478.7844496356363</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -459,8 +461,10 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.001222848892211914</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0011472702026367188   1586.6035551964073</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -470,8 +474,10 @@
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.001492023468017578</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0023202896118164062   2700.169578241978</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -481,8 +487,10 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.002637147903442383</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.003298044204711914   2304.1943061377356</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -492,8 +500,10 @@
       <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.02619290351867676</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.026426076889038086   2118.735772259764</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -503,8 +513,10 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.1230909824371338</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.12920498847961426   3115.6124635030487</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -514,8 +526,10 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.136422157287598</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.1275792121887207   3125.1921031396832</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -525,8 +539,10 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>11.83226919174194</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12.294594049453735   3058.6771489783323</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -536,8 +552,10 @@
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>142.9221220016479</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>149.77348399162292   2849.2265318034906</t>
+        </is>
       </c>
     </row>
   </sheetData>
